--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juerg\IdeaProjects\ExcelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12600A9E-CBE0-40E9-9E70-D6F393E2B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925352C-FD3D-4BC7-9B7E-1AC07612C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Branch1</t>
+    <t>Test</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Branch2</t>
+  </si>
+  <si>
+    <t>Hallo</t>
   </si>
 </sst>
 </file>
@@ -348,20 +351,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juerg\IdeaProjects\ExcelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12600A9E-CBE0-40E9-9E70-D6F393E2B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251516E9-46D0-4FE3-839C-F87D3CE1D0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
     <t>Branch1</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Läuft</t>
   </si>
 </sst>
 </file>
@@ -351,7 +352,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -367,4 +368,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D26A7D-D8FD-4F89-862B-9156AD1B6E12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>